--- a/public/assets/files/PlantillaLineasFacturaRecibida.xlsx
+++ b/public/assets/files/PlantillaLineasFacturaRecibida.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6D6711-F883-44F5-8E5A-27654BEFAF5E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75015E1-E3F7-47BE-B8DB-88D5B84B2795}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>IdTipoDocumento</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>IdentificacionProveedor</t>
+  </si>
+  <si>
+    <t>PorcIdentificacionPlena</t>
   </si>
 </sst>
 </file>
@@ -239,12 +242,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:W2" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
-  <autoFilter ref="A1:W2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:W2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X2" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
+  <autoFilter ref="A1:X2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:X2">
     <sortCondition ref="B1:B2"/>
   </sortState>
-  <tableColumns count="23">
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="IdTipoDocumento" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ConsecutivoComprobante" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="IdMoneda" dataDxfId="18"/>
@@ -265,6 +268,7 @@
     <tableColumn id="27" xr3:uid="{F2DD17B1-2A7F-44F4-9597-E795BCF624ED}" name="SubtotalLinea" dataDxfId="5"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="MontoDescuento" dataDxfId="4"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="CodigoImpuesto" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{1A37CB58-734F-43FF-A971-8010DCBC5B6C}" name="PorcIdentificacionPlena"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="MontoIVA" dataDxfId="2"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="TotalLinea" dataDxfId="1"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="TotalDocumento" dataDxfId="0"/>
@@ -570,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -584,10 +588,10 @@
     <col min="13" max="13" width="21.703125" customWidth="1"/>
     <col min="16" max="16" width="9.05859375" customWidth="1"/>
     <col min="18" max="18" width="10.234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.17578125" customWidth="1"/>
+    <col min="22" max="22" width="12.17578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -649,16 +653,19 @@
         <v>11</v>
       </c>
       <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>1</v>
       </c>
@@ -720,12 +727,15 @@
         <v>103</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>130</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1130</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1130</v>
       </c>
     </row>

--- a/public/assets/files/PlantillaLineasFacturaRecibida.xlsx
+++ b/public/assets/files/PlantillaLineasFacturaRecibida.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alf-g\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75015E1-E3F7-47BE-B8DB-88D5B84B2795}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7987BAF2-2994-4755-B72C-66A596053228}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
-    <t>IdTipoDocumento</t>
-  </si>
-  <si>
     <t>ConsecutivoComprobante</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>MontoDescuento</t>
   </si>
   <si>
-    <t>CodigoImpuesto</t>
-  </si>
-  <si>
     <t>TotalLinea</t>
   </si>
   <si>
@@ -116,6 +110,12 @@
   </si>
   <si>
     <t>PorcIdentificacionPlena</t>
+  </si>
+  <si>
+    <t>TipoDocumento</t>
+  </si>
+  <si>
+    <t>CodigoEtax</t>
   </si>
 </sst>
 </file>
@@ -248,7 +248,7 @@
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="IdTipoDocumento" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TipoDocumento" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ConsecutivoComprobante" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="IdMoneda" dataDxfId="18"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TipoCambio" dataDxfId="17"/>
@@ -267,7 +267,7 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="PrecioUnitario" dataDxfId="6"/>
     <tableColumn id="27" xr3:uid="{F2DD17B1-2A7F-44F4-9597-E795BCF624ED}" name="SubtotalLinea" dataDxfId="5"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="MontoDescuento" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="CodigoImpuesto" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="CodigoEtax" dataDxfId="3"/>
     <tableColumn id="14" xr3:uid="{1A37CB58-734F-43FF-A971-8010DCBC5B6C}" name="PorcIdentificacionPlena"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="MontoIVA" dataDxfId="2"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="TotalLinea" dataDxfId="1"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -593,76 +593,76 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>11</v>
-      </c>
-      <c r="U1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -670,43 +670,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
       </c>
       <c r="O2">
         <v>1</v>

--- a/public/assets/files/PlantillaLineasFacturaRecibida.xlsx
+++ b/public/assets/files/PlantillaLineasFacturaRecibida.xlsx
@@ -1,33 +1,3127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alf-g\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfredo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7987BAF2-2994-4755-B72C-66A596053228}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEE9125-F86D-4536-8FCA-201004E82D01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PaginaDetalle" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>eTax</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{61AC0307-C462-AA43-954F-D9AD3D5E4A85}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Códigos de tipo de documento</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 - Factura electrónica
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 - Nota de débito electrónica
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 - Nota de crédito electrónica
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 - Tiquete electrónico
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 - Nota de despacho
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6- Contrato
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7 - Procedimiento
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8 - Comprobante emitido en contingencia
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>99 - Otros</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{EAE1ADED-6078-F04D-B8B1-7838C9C1AC4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tipos de divisas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CRC - colón costarricense
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">USD - dólar estadounidense
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EUR - euro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{98A2A71A-E148-A645-A8E1-C7DCC8982F54}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sobre el tipo de cambio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Si la compra fue en CRC, se debe digitar 1.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{9B8061AE-5263-7F40-984B-791F48BE633F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Código de proveedor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">El código de proveedor es un código definido por usted que se utiliza para ordenar  sus proveedores en eTax.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Digite el código previamente creado en eTax para proveedores existentes, o bien, defina un código nuevo para clientes nuevos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{AF6609EE-8FE5-5849-93A5-E0A19B8B98BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Código de identificación:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 - Cédula física
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 - Cédula jurídica
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 - DIMEX
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 - NITE
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 - Extranjero
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>6 - Otro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{A1D71C11-1F3F-5A41-83E2-F04BDA5B15F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sobre el número de identificación:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Escriba el número sin guiones. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>En el caso de cédulas físicas, el número debe contener 9 dígitos. Si el número de cédula es más corto, complete con ceros.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{283C71F2-2D3A-C24F-9004-6BCBCCE00BBD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Códigos de condición de venta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 - Contado
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 - Crédito
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 - Consignación
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 - Apartado
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 - Arrendamiento con opción de compra
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6 - Arrendamiento en función financiera
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>99 - Otros</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{B340FF8E-F337-3A45-B79B-E64EB08A6290}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Códigos de método de pago:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 - Efectivo
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 - Tarjeta
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 - Cheque
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 - Transferencia - depósito bancario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 - Recaudado por terceros
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>99 - Otros</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{1470636F-4ECF-9B44-BFEB-D0693805F864}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Código de producto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">El código de producto es un código definido por usted que se utiliza para ordenar  sus productos en eTax.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Digite el código previamente creado en eTax para productos existentes, o bien, defina un código nuevo para productos nuevos.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{F583B32F-3226-104C-8032-58313B21AECE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unidades de medida:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Unidad - Unid
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Servicios Profesionales - Sp
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">1 por metro - 1/m
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Alquiler de uso comercial - Alc
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Alquiler de uso habitacional - Al
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Ampere - A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">ampere por metro - A/m
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">ampere por metro cuadrado - A/m²
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Becquerel - Bq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">bel - B
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Candela - cd
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">candela por metro cuadrado - cd/m²
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">centímetro - cm
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Comisiones - Cm
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">coulomb - C
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">coulomb por kilogramo - C/kg
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">coulomb por metro cuadrado - C/m²
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">coulomb por metro cúbico - C/m³
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">día - d
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">electronvolt - eV
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">estereorradión - sr
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">farad - F
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">farad por metro - F/m
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Galán - Gal
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">grado - deg
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">grado Celsius - C
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Gramo - g
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">gray - Gy
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">gray por segundo - Gy/s
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">henry - H
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">henry por metro - H/m
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">hertz - Hz
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">hora - h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Intereses - I
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Joule - J
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">joule por kelvin - J/K
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">joule por kilogramo - J/kg
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">joule por metro cúbico - J/m³
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">joule por mol - J/mol
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">katal - kat
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">katal por metro cúbico - kat/m³
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Kelvin - K
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Kilogramo - kg
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">kilogramo por metro cúbico - kg/m³
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Kilometro - Km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">kilovatios - Kw
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">litro - L
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">lumen - lm
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">lux - lx
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Metro - m
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">metro cuadrado - m²
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">metro cúbico - m³
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">metro por segundo - m/s
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mililitro - mL
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Milímetro - mm
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">minuto - min
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Mol - mol
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mol por metro cúbico - mol/m³
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">neper - Np
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">newton - N
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">newton por metro - N/m
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Onzas - Oz
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Otro tipo de servicio - Os
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">pascal - Pa
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">pascal segundo - Pa s
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">pulgada - ln
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">radión - rad
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">radión por segundo - rad/s
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Se debe indicar la descripción de la medida a utilizar - Otros
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">segundo - s
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Servicios personales - Spe
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Servicios técnicos - St
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">siemens - S
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">sievert - Sv
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">tesla - T
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">tonelada - t
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">unidad astronómica - ua
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">unidad de masa atómica unificada - u
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">uno (indice de refracción) - 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">volt - V
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">volt por metro - V/m
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Watt - W
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">watt por estereorradión - W/sr
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">watt por metro cuadrado - W/m²
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">watt por metro kevin - W/(mxK)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">weber - Wb
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{113E9FA5-BE92-1D49-B526-F17CEC02F5F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Códigos de IVA de eTax:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(En esta hoja, los ceros frente a cada número se pueden ignorar)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>001</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 1% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>002</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 2% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>003</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 13% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>004</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 4% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>008</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 8% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>011</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA al 1% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>012</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA al 2% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>013</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA al 13% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>014</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA al 4% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>018</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA al  8% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>021</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al 1% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>022</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al 2% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>023</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al 13% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>024</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al 4% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>028</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al  8% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>031</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 1% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>032</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 2% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>033</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 13% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>034</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 4% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>038</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones  de propiedad planta y equipo con IVA al  8% sin identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>040</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de bienes y servicios exentos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>041</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al  1% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>042</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al 2% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>043</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al 13% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>044</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al 4% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>048</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al  8% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>050</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones   de propiedad planta y equipo exento
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>051</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 1% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>052</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 2% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>053</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 13% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>054</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 4% de acreditación plena con identificación específica. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>058</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones  de propiedad planta y equipo con IVA al  8% de acreditación plena con identificación específica. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>060</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de bienes y servicios exentos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>061</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 1% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>062</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 2% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>063</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 13% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>064</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 4% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>068</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al  8% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>070</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de propiedad planta y equipo exento
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>071</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA 1% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>072</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA 2% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>073</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA 13% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>074</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA 4% de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>078</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras locales de  propiedad planta y equipocon IVA 8%  de acreditación plena con identificación específica.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>080</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras de bienes y servicios con IVA no acreditable desde origen
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>090</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importaciones de bienes y servicios con IVA no acreditable desde origen
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>097</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compras con IVA no acreditable por gastos no deducibles
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>098</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Inversión del sujeto pasivo base
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>099</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Inversión del sujeto pasivo base no acreditable
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{85F316E1-4EB4-AE4F-B3E9-92794A3C4B59}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sobre el monto de IVA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">El cálculo automático se realiza con base en el código de IVA de eTax elegido. El resultado es el monto de IVA correspondiente al subtotal de línea.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Verifique este dato y si lo desea, puede sobreescribir el cálculo automático digitando manualmente otro número.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Para efectos de cálculo de prorrata, este monto también se calcula para facturas emitidas previas al 1 de julio del 2019.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>ConsecutivoComprobante</t>
   </si>
   <si>
-    <t>IdMoneda</t>
-  </si>
-  <si>
     <t>TipoCambio</t>
   </si>
   <si>
@@ -58,73 +3152,230 @@
     <t>TotalDocumento</t>
   </si>
   <si>
+    <t>CondicionVenta</t>
+  </si>
+  <si>
+    <t>MetodoPago</t>
+  </si>
+  <si>
+    <t>MontoIVA</t>
+  </si>
+  <si>
+    <t>DetalleProducto</t>
+  </si>
+  <si>
+    <t>UnidadMedicion</t>
+  </si>
+  <si>
+    <t>SubtotalLinea</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>28/03/2019</t>
+  </si>
+  <si>
+    <t>EJ</t>
+  </si>
+  <si>
+    <t>Ejemplo de nombre</t>
+  </si>
+  <si>
+    <t>Ejemplo detalle</t>
+  </si>
+  <si>
+    <t>EJCodigo</t>
+  </si>
+  <si>
+    <t>TipoDocumento</t>
+  </si>
+  <si>
+    <t>Moneda</t>
+  </si>
+  <si>
+    <t>Indique la fecha de emisión de la factura en el formato indicado.</t>
+  </si>
+  <si>
+    <t>Indique el nombre de la persona física o persona jurídica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elija el tipo de divisa. </t>
+  </si>
+  <si>
+    <t>Indique el número de consecutivo de su comprobante.</t>
+  </si>
+  <si>
+    <t>Elija el código correspondiente a la condición de venta.</t>
+  </si>
+  <si>
+    <t>Elija el código correspondiente al método de pago.</t>
+  </si>
+  <si>
     <t>00100001010000000001</t>
   </si>
   <si>
-    <t>CondicionVenta</t>
-  </si>
-  <si>
-    <t>MetodoPago</t>
-  </si>
-  <si>
-    <t>MontoIVA</t>
-  </si>
-  <si>
-    <t>DetalleProducto</t>
-  </si>
-  <si>
-    <t>UnidadMedicion</t>
-  </si>
-  <si>
-    <t>SubtotalLinea</t>
-  </si>
-  <si>
-    <t>CRC</t>
-  </si>
-  <si>
-    <t>28/03/2019</t>
-  </si>
-  <si>
-    <t>EJ</t>
-  </si>
-  <si>
-    <t>Ejemplo de nombre</t>
-  </si>
-  <si>
-    <t>1-XXXX-XXXX</t>
-  </si>
-  <si>
-    <t>Ejemplo detalle</t>
-  </si>
-  <si>
-    <t>EJCodigo</t>
+    <t>Indíque el número de línea de la factura.</t>
+  </si>
+  <si>
+    <t>Indique el código de producto utilizado en eTax.</t>
+  </si>
+  <si>
+    <t>Indique la cantidad de ítems detallados en la línea de la factura.</t>
+  </si>
+  <si>
+    <t>Indique el detalle de producto definido en la línea de la factura.</t>
+  </si>
+  <si>
+    <t>Elija la unidad de medición detallada en la línea de la factura.</t>
+  </si>
+  <si>
+    <t>CodigoIVAEtax</t>
+  </si>
+  <si>
+    <t>Cálculo automático: subtotal de la línea.</t>
+  </si>
+  <si>
+    <t>Cálculo automático: Total de línea</t>
+  </si>
+  <si>
+    <t>Indique el monto total de la factura</t>
+  </si>
+  <si>
+    <t>Indique el monto de descuento detallado en la línea de la factura.</t>
+  </si>
+  <si>
+    <t>Indique el precio unitario detallado en la línea de la factura.</t>
+  </si>
+  <si>
+    <t>Unid</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Bienvenido al sistema de importación de facturas recibidas vía excel de eTax. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Complete los datos de sus facturas recibidas en las celdas corresopndientes (a partir de la fila 4, inclusive). Cada línea de factura se detalla en su propia fila.
+Pase su cursor por las celdas de la segunda fila marcadas con un triángulo en la esquina superior derecha para ver más detalles sobre la información que debe digitar.
+No modifique los textos de la tercera fila. Estos son necesarios para la correcta lectura del documento.</t>
+    </r>
+  </si>
+  <si>
+    <t>CodigoProveedor</t>
+  </si>
+  <si>
+    <t>Indique el tipo de cambio considerado al momento de realizar la compra.</t>
+  </si>
+  <si>
+    <t>Elija el código equivalente al tipo de documento recibido.</t>
+  </si>
+  <si>
+    <t>Indique el código de proveedor utilizado en eTax.</t>
   </si>
   <si>
     <t>NombreProveedor</t>
   </si>
   <si>
-    <t>CodigoProveedor</t>
+    <t>Elija el código equivalente al tipo de identificación del proveedor.</t>
   </si>
   <si>
     <t>IdentificacionProveedor</t>
   </si>
   <si>
-    <t>PorcIdentificacionPlena</t>
-  </si>
-  <si>
-    <t>TipoDocumento</t>
-  </si>
-  <si>
-    <t>CodigoEtax</t>
+    <t>Elija el código de IVA de eTax correspondiente al tipo de compra.</t>
+  </si>
+  <si>
+    <t>CorreoProveedor</t>
+  </si>
+  <si>
+    <t>Indique el correo electrónico del proveedor</t>
+  </si>
+  <si>
+    <t>Indíque el número de identificación del proveedor.</t>
+  </si>
+  <si>
+    <t>Monto de IVA correspondiente al subtotal de línea</t>
+  </si>
+  <si>
+    <t>ejemplo@dominio.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="34"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -145,14 +3396,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
@@ -163,9 +3453,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -205,6 +3497,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -217,16 +3520,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -242,21 +3536,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X2" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
-  <autoFilter ref="A1:X2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:X2">
-    <sortCondition ref="B1:B2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:X4" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
+  <autoFilter ref="A3:X4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A4:X4">
+    <sortCondition ref="B3:B4"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TipoDocumento" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ConsecutivoComprobante" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="IdMoneda" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Moneda" dataDxfId="18"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TipoCambio" dataDxfId="17"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FechaEmision" dataDxfId="16"/>
     <tableColumn id="26" xr3:uid="{BC57BDDF-3739-4B7D-AFAD-41175DE60537}" name="CodigoProveedor"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NombreProveedor" dataDxfId="15"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TipoIdentificacion" dataDxfId="14"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="IdentificacionProveedor" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{663CF71D-C706-4432-A6DF-B0C9919D8033}" name="CorreoProveedor" dataCellStyle="Hyperlink"/>
     <tableColumn id="25" xr3:uid="{416EB538-A7AD-494E-B673-8B653787523A}" name="CondicionVenta"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MetodoPago" dataDxfId="12"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NumeroLinea" dataDxfId="11"/>
@@ -265,12 +3560,15 @@
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cantidad" dataDxfId="8"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="UnidadMedicion" dataDxfId="7"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="PrecioUnitario" dataDxfId="6"/>
-    <tableColumn id="27" xr3:uid="{F2DD17B1-2A7F-44F4-9597-E795BCF624ED}" name="SubtotalLinea" dataDxfId="5"/>
+    <tableColumn id="27" xr3:uid="{F2DD17B1-2A7F-44F4-9597-E795BCF624ED}" name="SubtotalLinea" dataDxfId="5">
+      <calculatedColumnFormula>P4*R4</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="MontoDescuento" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="CodigoEtax" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{1A37CB58-734F-43FF-A971-8010DCBC5B6C}" name="PorcIdentificacionPlena"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="CodigoIVAEtax" dataDxfId="3"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="MontoIVA" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="TotalLinea" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="TotalLinea" dataDxfId="1">
+      <calculatedColumnFormula>S4-T4+V4</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="TotalDocumento" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -573,177 +3871,331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="16.3515625" customWidth="1"/>
-    <col min="6" max="6" width="10.17578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5859375" customWidth="1"/>
-    <col min="13" max="13" width="21.703125" customWidth="1"/>
-    <col min="16" max="16" width="9.05859375" customWidth="1"/>
-    <col min="18" max="18" width="10.234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.17578125" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="11" max="18" width="15.77734375" customWidth="1"/>
+    <col min="19" max="19" width="15.77734375" style="1" customWidth="1"/>
+    <col min="20" max="24" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+    </row>
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="N3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="W3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
+      <c r="I4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O4" t="s">
         <v>22</v>
       </c>
-      <c r="H2">
+      <c r="P4">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4">
         <v>1000</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S4" s="1">
+        <f>P4*R4</f>
         <v>1000</v>
       </c>
-      <c r="S2">
+      <c r="T4">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>103</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
+      <c r="U4" s="15">
+        <v>3</v>
+      </c>
+      <c r="V4" s="14">
         <v>130</v>
       </c>
-      <c r="W2">
+      <c r="W4" s="1">
+        <f>S4-T4+V4</f>
         <v>1130</v>
       </c>
-      <c r="X2">
+      <c r="X4">
         <v>1130</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:X1"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{AC2F3921-FC38-9548-AC79-E72BE78E27E2}">
+      <formula1>"1, 2, 3, 4, 5, 6, 7, 8, 99"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{5A0A31C5-ACF9-4248-8C93-C275B189E2B8}">
+      <formula1>"CRC, USD, EUR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{F6F97C31-42F3-F741-B38C-A1CF2550E246}">
+      <formula1>"1, 2, 3, 4, 5, 6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{A92A3769-41C2-0D49-8A4C-9157B560713C}">
+      <formula1>"1, 2, 3, 4, 5, 6, 99"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4" xr:uid="{C57433FB-8CD1-5B4B-AF9A-CBC8E58F71F0}">
+      <formula1>"1, 2, 3, 4, 5, 99"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{376D7C5F-0DFB-4D5F-B33F-6C993E8F2317}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A99C6C29-6598-9B48-AAFF-A836F2595B96}">
+          <x14:formula1>
+            <xm:f>#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>U4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96268742-5CD7-E94B-8959-07CAA6371FA5}">
+          <x14:formula1>
+            <xm:f>#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/public/assets/files/PlantillaLineasFacturaRecibida.xlsx
+++ b/public/assets/files/PlantillaLineasFacturaRecibida.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfredo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEE9125-F86D-4536-8FCA-201004E82D01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE2CD52-98C4-4C63-9DD3-FA8A3741DFAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PaginaDetalle" sheetId="1" r:id="rId1"/>
@@ -1572,6 +1572,16 @@
           <t xml:space="preserve">
 </t>
         </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
     <comment ref="U2" authorId="0" shapeId="0" xr:uid="{113E9FA5-BE92-1D49-B526-F17CEC02F5F4}">
@@ -1623,16 +1633,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 1% sin identificación específica.
+          <t xml:space="preserve"> - Compras locales de bienes y servicios con IVA al 1% sin identificación específica.
 </t>
         </r>
         <r>
@@ -1652,16 +1653,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 2% sin identificación específica.
+          <t xml:space="preserve"> - Compras locales de bienes y servicios con IVA al 2% sin identificación específica.
 </t>
         </r>
         <r>
@@ -1681,16 +1673,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 13% sin identificación específica.
+          <t xml:space="preserve"> - Compras locales de bienes y servicios con IVA al 13% sin identificación específica.
 </t>
         </r>
         <r>
@@ -1710,16 +1693,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 4% sin identificación específica.
+          <t xml:space="preserve"> - Compras locales de bienes y servicios con IVA al 4% sin identificación específica.
 </t>
         </r>
         <r>
@@ -1739,16 +1713,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 8% sin identificación específica.
+          <t xml:space="preserve"> - Compras locales de bienes y servicios con IVA al 8% sin identificación específica.
 </t>
         </r>
         <r>
@@ -1768,16 +1733,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA al 1% sin identificación específica.
+          <t xml:space="preserve"> - Compras locales de propiedad planta y equipo con IVA al 1% sin identificación específica.
 </t>
         </r>
         <r>
@@ -1797,16 +1753,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA al 2% sin identificación específica.
+          <t xml:space="preserve"> - Compras locales de propiedad planta y equipo con IVA al 2% sin identificación específica.
 </t>
         </r>
         <r>
@@ -1826,16 +1773,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA al 13% sin identificación específica.
+          <t xml:space="preserve"> - Compras locales de propiedad planta y equipo con IVA al 13% sin identificación específica.
 </t>
         </r>
         <r>
@@ -1855,16 +1793,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA al 4% sin identificación específica.
+          <t xml:space="preserve"> - Compras locales de propiedad planta y equipo con IVA al 4% sin identificación específica.
 </t>
         </r>
         <r>
@@ -1884,16 +1813,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA al  8% sin identificación específica.
+          <t xml:space="preserve"> - Compras locales de propiedad planta y equipo con IVA al  8% sin identificación específica.
 </t>
         </r>
         <r>
@@ -1913,16 +1833,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al 1% sin identificación específica.
+          <t xml:space="preserve"> - Importaciones de bienes y servicios con IVA al 1% sin identificación específica.
 </t>
         </r>
         <r>
@@ -1942,16 +1853,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al 2% sin identificación específica.
+          <t xml:space="preserve"> - Importaciones de bienes y servicios con IVA al 2% sin identificación específica.
 </t>
         </r>
         <r>
@@ -1971,16 +1873,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al 13% sin identificación específica.
+          <t xml:space="preserve"> - Importaciones de bienes y servicios con IVA al 13% sin identificación específica.
 </t>
         </r>
         <r>
@@ -2000,16 +1893,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al 4% sin identificación específica.
+          <t xml:space="preserve"> - Importaciones de bienes y servicios con IVA al 4% sin identificación específica.
 </t>
         </r>
         <r>
@@ -2029,16 +1913,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al  8% sin identificación específica.
+          <t xml:space="preserve"> - Importaciones de bienes y servicios con IVA al  8% sin identificación específica.
 </t>
         </r>
         <r>
@@ -2058,16 +1933,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 1% sin identificación específica.
+          <t xml:space="preserve"> - Importaciones de propiedad planta y equipo con IVA al 1% sin identificación específica.
 </t>
         </r>
         <r>
@@ -2087,16 +1953,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 2% sin identificación específica.
+          <t xml:space="preserve"> - Importaciones de propiedad planta y equipo con IVA al 2% sin identificación específica.
 </t>
         </r>
         <r>
@@ -2116,16 +1973,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 13% sin identificación específica.
+          <t xml:space="preserve"> - Importaciones de propiedad planta y equipo con IVA al 13% sin identificación específica.
 </t>
         </r>
         <r>
@@ -2145,16 +1993,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 4% sin identificación específica.
+          <t xml:space="preserve"> - Importaciones de propiedad planta y equipo con IVA al 4% sin identificación específica.
 </t>
         </r>
         <r>
@@ -2174,16 +2013,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones  de propiedad planta y equipo con IVA al  8% sin identificación específica.
+          <t xml:space="preserve"> - Importaciones  de propiedad planta y equipo con IVA al  8% sin identificación específica.
 </t>
         </r>
         <r>
@@ -2203,16 +2033,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de bienes y servicios exentos
+          <t xml:space="preserve"> - Importaciones de bienes y servicios exentos
 </t>
         </r>
         <r>
@@ -2232,16 +2053,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al  1% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Importaciones de bienes y servicios con IVA al  1% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2261,16 +2073,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al 2% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Importaciones de bienes y servicios con IVA al 2% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2290,16 +2093,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al 13% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Importaciones de bienes y servicios con IVA al 13% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2319,16 +2113,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al 4% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Importaciones de bienes y servicios con IVA al 4% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2348,16 +2133,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de bienes y servicios con IVA al  8% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Importaciones de bienes y servicios con IVA al  8% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2377,16 +2153,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones   de propiedad planta y equipo exento
+          <t xml:space="preserve"> - Importaciones   de propiedad planta y equipo exento
 </t>
         </r>
         <r>
@@ -2406,16 +2173,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 1% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Importaciones de propiedad planta y equipo con IVA al 1% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2435,16 +2193,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 2% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Importaciones de propiedad planta y equipo con IVA al 2% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2464,16 +2213,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 13% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Importaciones de propiedad planta y equipo con IVA al 13% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2493,16 +2233,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de propiedad planta y equipo con IVA al 4% de acreditación plena con identificación específica. 
+          <t xml:space="preserve"> - Importaciones de propiedad planta y equipo con IVA al 4% de acreditación plena con identificación específica. 
 </t>
         </r>
         <r>
@@ -2522,16 +2253,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones  de propiedad planta y equipo con IVA al  8% de acreditación plena con identificación específica. 
+          <t xml:space="preserve"> - Importaciones  de propiedad planta y equipo con IVA al  8% de acreditación plena con identificación específica. 
 </t>
         </r>
         <r>
@@ -2551,16 +2273,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de bienes y servicios exentos
+          <t xml:space="preserve"> - Compras locales de bienes y servicios exentos
 </t>
         </r>
         <r>
@@ -2580,16 +2293,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 1% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Compras locales de bienes y servicios con IVA al 1% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2609,16 +2313,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 2% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Compras locales de bienes y servicios con IVA al 2% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2638,16 +2333,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 13% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Compras locales de bienes y servicios con IVA al 13% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2667,16 +2353,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al 4% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Compras locales de bienes y servicios con IVA al 4% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2696,16 +2373,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de bienes y servicios con IVA al  8% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Compras locales de bienes y servicios con IVA al  8% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2725,16 +2393,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de propiedad planta y equipo exento
+          <t xml:space="preserve"> - Compras locales de propiedad planta y equipo exento
 </t>
         </r>
         <r>
@@ -2754,16 +2413,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA 1% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Compras locales de propiedad planta y equipo con IVA 1% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2783,16 +2433,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA 2% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Compras locales de propiedad planta y equipo con IVA 2% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2812,16 +2453,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA 13% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Compras locales de propiedad planta y equipo con IVA 13% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2841,16 +2473,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de propiedad planta y equipo con IVA 4% de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Compras locales de propiedad planta y equipo con IVA 4% de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2870,16 +2493,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras locales de  propiedad planta y equipocon IVA 8%  de acreditación plena con identificación específica.
+          <t xml:space="preserve"> - Compras locales de  propiedad planta y equipocon IVA 8%  de acreditación plena con identificación específica.
 </t>
         </r>
         <r>
@@ -2899,16 +2513,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras de bienes y servicios con IVA no acreditable desde origen
+          <t xml:space="preserve"> - Compras de bienes y servicios con IVA no acreditable desde origen
 </t>
         </r>
         <r>
@@ -2928,16 +2533,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Importaciones de bienes y servicios con IVA no acreditable desde origen
+          <t xml:space="preserve"> - Importaciones de bienes y servicios con IVA no acreditable desde origen
 </t>
         </r>
         <r>
@@ -2957,16 +2553,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compras con IVA no acreditable por gastos no deducibles
+          <t xml:space="preserve"> - Compras con IVA no acreditable por gastos no deducibles
 </t>
         </r>
         <r>
@@ -2986,16 +2573,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Inversión del sujeto pasivo base
+          <t xml:space="preserve"> - Inversión del sujeto pasivo base
 </t>
         </r>
         <r>
@@ -3015,16 +2593,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Inversión del sujeto pasivo base no acreditable
+          <t xml:space="preserve"> - Inversión del sujeto pasivo base no acreditable
 </t>
         </r>
       </text>
@@ -3117,7 +2686,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>ConsecutivoComprobante</t>
   </si>
@@ -3227,18 +2796,9 @@
     <t>Indique el detalle de producto definido en la línea de la factura.</t>
   </si>
   <si>
-    <t>Elija la unidad de medición detallada en la línea de la factura.</t>
-  </si>
-  <si>
     <t>CodigoIVAEtax</t>
   </si>
   <si>
-    <t>Cálculo automático: subtotal de la línea.</t>
-  </si>
-  <si>
-    <t>Cálculo automático: Total de línea</t>
-  </si>
-  <si>
     <t>Indique el monto total de la factura</t>
   </si>
   <si>
@@ -3246,12 +2806,6 @@
   </si>
   <si>
     <t>Indique el precio unitario detallado en la línea de la factura.</t>
-  </si>
-  <si>
-    <t>Unid</t>
-  </si>
-  <si>
-    <t>XXXXXXXXX</t>
   </si>
   <si>
     <r>
@@ -3300,26 +2854,72 @@
     <t>Elija el código de IVA de eTax correspondiente al tipo de compra.</t>
   </si>
   <si>
+    <t>Indique la unidad de medición detallada en la línea de la factura.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Subtotal de la línea. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Este es un cálculo automático. Verifique el dato en su factura y cambiélo manualmente en caso de ser necesario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Monto de IVA correspondiente al subtotal de línea. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Este es un cálculo automático. Verifique el dato en su factura y cambiélo manualmente en caso de ser necesario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total de línea. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Este es un cálculo automático. Verifique el dato en su factura y cambiélo manualmente en caso de ser necesario.</t>
+    </r>
+  </si>
+  <si>
     <t>CorreoProveedor</t>
   </si>
   <si>
-    <t>Indique el correo electrónico del proveedor</t>
-  </si>
-  <si>
     <t>Indíque el número de identificación del proveedor.</t>
   </si>
   <si>
-    <t>Monto de IVA correspondiente al subtotal de línea</t>
-  </si>
-  <si>
-    <t>ejemplo@dominio.com</t>
+    <t>Indique el correo del proveedor</t>
+  </si>
+  <si>
+    <t>ejemplo@etaxcr.com</t>
+  </si>
+  <si>
+    <t>Sp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -3373,6 +2973,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -3398,7 +3004,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3433,13 +3039,13 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3551,7 +3157,7 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NombreProveedor" dataDxfId="15"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TipoIdentificacion" dataDxfId="14"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="IdentificacionProveedor" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{663CF71D-C706-4432-A6DF-B0C9919D8033}" name="CorreoProveedor" dataCellStyle="Hyperlink"/>
+    <tableColumn id="14" xr3:uid="{6DC8ABAA-586C-42FC-A898-73830CDE483C}" name="CorreoProveedor" dataCellStyle="Hyperlink"/>
     <tableColumn id="25" xr3:uid="{416EB538-A7AD-494E-B673-8B653787523A}" name="CondicionVenta"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MetodoPago" dataDxfId="12"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NumeroLinea" dataDxfId="11"/>
@@ -3565,7 +3171,9 @@
     </tableColumn>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="MontoDescuento" dataDxfId="4"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="CodigoIVAEtax" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="MontoIVA" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="MontoIVA" dataDxfId="2">
+      <calculatedColumnFormula>S4*IF(U4=1,1%,IF(U4=2,2%,IF(U4=3,13%,IF(U4=4,4%,IF(U4=8,8%,IF(U4=11,1%,IF(U4=12,2%,IF(U4=13,13%,IF(U4=14,4%,IF(U4=18,8%,IF(U4=21,1%,IF(U4=22,2%,IF(U4=23,13%,IF(U4=28,8%,IF(U4=31,1%,IF(U4=32,2%,IF(U4=33,13%,IF(U4=34,4%,IF(U4=38,8%,IF(U4=40,0%,IF(U4=41,1%,IF(U4=42,2%,IF(U4=43,13%,IF(U4=44,4%,IF(U4=48,8%,IF(U4=50,0%,IF(U4=51,1%,IF(U4=52,2%,IF(U4=53,13%,IF(U4=54,4%,IF(U4=58,8%,IF(U4=60,0%,IF(U4=61,1%,IF(U4=62,2%,IF(U4=63,13%,IF(U4=64,4%,IF(U4=68,8%,IF(U4=70,0%,IF(U4=71,1%,IF(U4=72,2%,IF(U4=73,13%,IF(U4=74,4%,IF(U4=78,8%,IF(U4=80,0%,IF(U4=90,0%,IF(U4=97,0%,IF(U4=98,0%,IF(U4=24,4%,0))))))))))))))))))))))))))))))))))))))))))))))))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="TotalLinea" dataDxfId="1">
       <calculatedColumnFormula>S4-T4+V4</calculatedColumnFormula>
     </tableColumn>
@@ -3874,11 +3482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.77734375" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" style="9" customWidth="1"/>
@@ -3886,45 +3494,47 @@
     <col min="4" max="4" width="20.77734375" customWidth="1"/>
     <col min="5" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="10" width="20.77734375" customWidth="1"/>
     <col min="11" max="18" width="15.77734375" customWidth="1"/>
-    <col min="19" max="19" width="15.77734375" style="1" customWidth="1"/>
-    <col min="20" max="24" width="15.77734375" customWidth="1"/>
+    <col min="19" max="19" width="25.77734375" style="1" customWidth="1"/>
+    <col min="20" max="21" width="15.77734375" customWidth="1"/>
+    <col min="22" max="22" width="28.33203125" customWidth="1"/>
+    <col min="23" max="23" width="25.77734375" customWidth="1"/>
+    <col min="24" max="24" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
+    <row r="1" spans="1:24" ht="64.95" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="49.95" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>28</v>
@@ -3933,22 +3543,22 @@
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>55</v>
@@ -3972,31 +3582,31 @@
         <v>34</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="U2" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -4013,19 +3623,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>11</v>
@@ -4058,7 +3668,7 @@
         <v>8</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>13</v>
@@ -4070,7 +3680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4095,11 +3705,11 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>58</v>
+      <c r="I4" s="8">
+        <v>114170404</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4120,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="R4">
         <v>1000</v>
@@ -4133,14 +3743,15 @@
         <v>0</v>
       </c>
       <c r="U4" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4" s="14">
-        <v>130</v>
+        <f>S4*IF(U4=1,1%,IF(U4=2,2%,IF(U4=3,13%,IF(U4=4,4%,IF(U4=8,8%,IF(U4=11,1%,IF(U4=12,2%,IF(U4=13,13%,IF(U4=14,4%,IF(U4=18,8%,IF(U4=21,1%,IF(U4=22,2%,IF(U4=23,13%,IF(U4=28,8%,IF(U4=31,1%,IF(U4=32,2%,IF(U4=33,13%,IF(U4=34,4%,IF(U4=38,8%,IF(U4=40,0%,IF(U4=41,1%,IF(U4=42,2%,IF(U4=43,13%,IF(U4=44,4%,IF(U4=48,8%,IF(U4=50,0%,IF(U4=51,1%,IF(U4=52,2%,IF(U4=53,13%,IF(U4=54,4%,IF(U4=58,8%,IF(U4=60,0%,IF(U4=61,1%,IF(U4=62,2%,IF(U4=63,13%,IF(U4=64,4%,IF(U4=68,8%,IF(U4=70,0%,IF(U4=71,1%,IF(U4=72,2%,IF(U4=73,13%,IF(U4=74,4%,IF(U4=78,8%,IF(U4=80,0%,IF(U4=90,0%,IF(U4=97,0%,IF(U4=98,0%,IF(U4=24,4%,0))))))))))))))))))))))))))))))))))))))))))))))))</f>
+        <v>40</v>
       </c>
       <c r="W4" s="1">
         <f>S4-T4+V4</f>
-        <v>1130</v>
+        <v>1040</v>
       </c>
       <c r="X4">
         <v>1130</v>
@@ -4150,7 +3761,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:X1"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{AC2F3921-FC38-9548-AC79-E72BE78E27E2}">
       <formula1>"1, 2, 3, 4, 5, 6, 7, 8, 99"</formula1>
     </dataValidation>
@@ -4166,9 +3777,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4" xr:uid="{C57433FB-8CD1-5B4B-AF9A-CBC8E58F71F0}">
       <formula1>"1, 2, 3, 4, 5, 99"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4" xr:uid="{A99C6C29-6598-9B48-AAFF-A836F2595B96}">
+      <formula1>"001,002,003,004,008,011,012,013,014,018,021,022,023,024,028,031,032,033,034,038,040,041,042,043,044,048,050,051,052,053,054,058,060,061,062,063,064,068,070,071,072,073,074,078,080,090,097,098,099"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{376D7C5F-0DFB-4D5F-B33F-6C993E8F2317}"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{CEF54157-E62A-427B-8B93-70EA477473C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -4179,23 +3793,5 @@
   <tableParts count="1">
     <tablePart r:id="rId4"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A99C6C29-6598-9B48-AAFF-A836F2595B96}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>U4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96268742-5CD7-E94B-8959-07CAA6371FA5}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/public/assets/files/PlantillaLineasFacturaRecibida.xlsx
+++ b/public/assets/files/PlantillaLineasFacturaRecibida.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfredo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissa/Dropbox/PHORMO/phormo-equipo/Clientes/eTax/app - plantillas excel/versión agosto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B53420-0C6C-4E33-BE59-B091A6197F0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879ADDA3-34A4-BB43-AE90-7376ED53F7C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PaginaDetalle" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1846,6 +1838,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>1 Bienes generales al 1%</t>
         </r>
@@ -1854,15 +1847,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -1871,14 +1866,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Bienes de capital al 1%</t>
         </r>
@@ -1887,15 +1884,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>3 Servicios al 1%</t>
         </r>
@@ -1904,15 +1903,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>4 Uso o consumo personal de mercancias y servicios al 1%</t>
         </r>
@@ -1921,15 +1922,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>5 Transferencias sin contraprestación a terceros 1%</t>
         </r>
@@ -1938,15 +1941,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>6</t>
         </r>
@@ -1955,14 +1960,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Medicamentos, materias primas, insumos, maquinaria, equipo y reactivos para su producción</t>
         </r>
@@ -1971,15 +1978,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>7</t>
         </r>
@@ -1988,14 +1997,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Primas de seguros personales</t>
         </r>
@@ -2004,15 +2015,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>8</t>
         </r>
@@ -2021,14 +2034,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Bienes y servicios que hagan las instituciones estatales de educación superior y otras autorizadas</t>
         </r>
@@ -2037,15 +2052,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>9</t>
         </r>
@@ -2054,14 +2071,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Otros servicios de educación privada no acreditados por el MEP y/o CONESUP</t>
         </r>
@@ -2070,15 +2089,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>10</t>
         </r>
@@ -2087,14 +2108,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Boletos o pasajes aéreos nacionales</t>
         </r>
@@ -2103,15 +2126,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>11</t>
         </r>
@@ -2120,14 +2145,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Boletos o pasajes aéreos internacionales</t>
         </r>
@@ -2136,15 +2163,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>12</t>
         </r>
@@ -2153,14 +2182,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Servicios de salud privados</t>
         </r>
@@ -2169,15 +2200,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>13</t>
         </r>
@@ -2186,14 +2219,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Servicios de ingeniería, arquitectura, topografía, y construcción de obra civil</t>
         </r>
@@ -2202,15 +2237,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>14</t>
         </r>
@@ -2219,14 +2256,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Servicios de recolección, clasificación y almacenamiento de bienes reciclables y reutilizables, insc…</t>
         </r>
@@ -2235,15 +2274,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>15</t>
         </r>
@@ -2252,14 +2293,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Bienes generales al 13%</t>
         </r>
@@ -2268,15 +2311,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>16</t>
         </r>
@@ -2285,14 +2330,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Bienes de capital al 13%</t>
         </r>
@@ -2301,15 +2348,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>17</t>
         </r>
@@ -2318,14 +2367,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Servicios al 13%</t>
         </r>
@@ -2334,15 +2385,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>18</t>
         </r>
@@ -2351,14 +2404,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Uso o consumo personal de mercancias y servicios al 13%</t>
         </r>
@@ -2367,15 +2422,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>19</t>
         </r>
@@ -2384,14 +2441,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Transferencias sin contraprestación a terceros 13%</t>
         </r>
@@ -2400,15 +2459,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>20</t>
         </r>
@@ -2417,14 +2478,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Incrementos en la base imponible por recaudación a nivel de mayorista</t>
         </r>
@@ -2433,15 +2496,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>21 Servicios adquiridos desde el exterior</t>
         </r>
@@ -2450,15 +2515,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>22</t>
         </r>
@@ -2467,14 +2534,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Exportaciones de bienes</t>
         </r>
@@ -2483,15 +2552,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>23</t>
         </r>
@@ -2500,14 +2571,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Exportaciones de servicios</t>
         </r>
@@ -2516,15 +2589,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>24</t>
         </r>
@@ -2533,14 +2608,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Venta local de bienes exentos</t>
         </r>
@@ -2549,15 +2626,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>25</t>
         </r>
@@ -2566,14 +2645,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Venta local de servicios exentos</t>
         </r>
@@ -2582,15 +2663,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>26</t>
         </r>
@@ -2599,14 +2682,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Créditos para descuentos de facturas y arrendamientos financieros</t>
         </r>
@@ -2615,15 +2700,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>27</t>
         </r>
@@ -2632,14 +2719,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Arrendamientos destinados a viviendas y accesorios, así como los lugares de culto religioso</t>
         </r>
@@ -2648,15 +2737,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>28</t>
         </r>
@@ -2665,14 +2756,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Arrendamientos utilizados por micro y pequeñas empresas</t>
         </r>
@@ -2681,15 +2774,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>29</t>
         </r>
@@ -2698,14 +2793,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Suministro de energía eléctrica residencial no mayor a 280 KW/H</t>
         </r>
@@ -2714,15 +2811,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>30</t>
         </r>
@@ -2731,14 +2830,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Venta o entrega de agua residencial no mayor a 30 M3</t>
         </r>
@@ -2747,15 +2848,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>31</t>
         </r>
@@ -2764,14 +2867,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Autoconsumo de bienes y servicios sin aplicación de créditos total o parcial</t>
         </r>
@@ -2780,15 +2885,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>32</t>
         </r>
@@ -2797,14 +2904,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Venta de sillas de ruedas y similares, equipo ortopédico, prótesis y equipo</t>
         </r>
@@ -2813,15 +2922,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>33</t>
         </r>
@@ -2830,14 +2941,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Venta de bienes y servicios a instituciones públicas y privadas exentas</t>
         </r>
@@ -2846,15 +2959,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>34</t>
         </r>
@@ -2863,14 +2978,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Aranceles por matrícula y créditos de cursos en universidades públicas y privadas exentas</t>
         </r>
@@ -2879,15 +2996,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>35</t>
         </r>
@@ -2896,14 +3015,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Servicios de transporte terrestre de pasajeros y cabotaje de personas con concesión</t>
         </r>
@@ -2912,15 +3033,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>36</t>
         </r>
@@ -2929,14 +3052,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Venta, arrendamiento y leasing de autobuses y embarcaciones</t>
         </r>
@@ -2945,15 +3070,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>37</t>
         </r>
@@ -2962,14 +3089,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Comisiones por el servicio de subasta ganadera y transacción de animales</t>
         </r>
@@ -2978,15 +3107,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>38</t>
         </r>
@@ -2995,14 +3126,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Venta, comercialización y matanza de animales vivos</t>
         </r>
@@ -3011,15 +3144,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>39</t>
         </r>
@@ -3028,14 +3163,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Ventas sin impuesto a clientes autorizados por la Dirección General de Hacienda</t>
         </r>
@@ -3044,15 +3181,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>40</t>
         </r>
@@ -3061,14 +3200,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Ventas sin impuesto a clientes autorizados por la Dirección General de Tributación</t>
         </r>
@@ -3077,15 +3218,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>41</t>
         </r>
@@ -3094,14 +3237,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Ventas sin impuesto a clientes exonerados por ley especial</t>
         </r>
@@ -3110,15 +3255,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>42</t>
         </r>
@@ -3127,14 +3274,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Ventas de bienes y servicios relacionados a la canasta básica tributaria exentos el 1er año de la le…</t>
         </r>
@@ -3143,15 +3292,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>43</t>
         </r>
@@ -3160,14 +3311,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Servicios de ingeniería, arquitectura, topografía y construcción de obra civil con planos visados an…</t>
         </r>
@@ -3176,15 +3329,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>44</t>
         </r>
@@ -3193,14 +3348,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Servicios turísticos inscritos ante el Instituto Costarricense de Turismo</t>
         </r>
@@ -3209,15 +3366,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>45</t>
         </r>
@@ -3226,14 +3385,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Servicios de recolección, clasificación y almacenamiento de bienes reciclables y reutilizables, insc…</t>
         </r>
@@ -3242,15 +3403,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>46</t>
         </r>
@@ -3259,14 +3422,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Bienes y servicios a la Caja Costarricense de Seguro Social</t>
         </r>
@@ -3275,15 +3440,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>47</t>
         </r>
@@ -3292,14 +3459,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Bienes y servicios a las corporaciones municipales</t>
         </r>
@@ -3308,15 +3477,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>48</t>
         </r>
@@ -3325,14 +3496,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Otras ventas no sujetas</t>
         </r>
@@ -3341,15 +3514,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>49</t>
         </r>
@@ -3358,14 +3533,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Compras locales de bienes utilizados en operaciones sujetas y no exentas</t>
         </r>
@@ -3374,15 +3551,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>50</t>
         </r>
@@ -3391,14 +3570,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Compras locales de servicios utilizados en operaciones sujetas y no exentas</t>
         </r>
@@ -3407,15 +3588,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>51</t>
         </r>
@@ -3424,14 +3607,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Compras locales de bienes de capital utilizados en operaciones sujetas y no exentas</t>
         </r>
@@ -3440,15 +3625,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>52</t>
         </r>
@@ -3457,14 +3644,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Importaciones de bienes utilizados en operaciones sujetas y no exentas</t>
         </r>
@@ -3473,15 +3662,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>53</t>
         </r>
@@ -3490,14 +3681,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Importaciones de servicios utilizados en operaciones sujetas y no exentas</t>
         </r>
@@ -3506,15 +3699,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>54</t>
         </r>
@@ -3523,14 +3718,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Importaciones de bienes de capital utilizados en operaciones sujetas y no exentas</t>
         </r>
@@ -3539,15 +3736,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>55</t>
         </r>
@@ -3556,14 +3755,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Compras locales de bienes y servicios exentos</t>
         </r>
@@ -3572,15 +3773,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>56</t>
         </r>
@@ -3589,14 +3792,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Importaciones de bienes y servicios exentos</t>
         </r>
@@ -3605,15 +3810,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>57</t>
         </r>
@@ -3622,14 +3829,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Compras locales de bienes y servicios no relacionados directamente con la actividad</t>
         </r>
@@ -3638,15 +3847,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>58</t>
         </r>
@@ -3655,14 +3866,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Importaciones de bienes y servicios no relacionados directamente con la actividad</t>
         </r>
@@ -3671,15 +3884,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>59</t>
         </r>
@@ -3688,14 +3903,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Compras de bienes con IVA no acreditable por gastos no deducibles</t>
         </r>
@@ -3704,6 +3921,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3840,7 +4058,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>ConsecutivoComprobante</t>
   </si>
@@ -4090,12 +4308,24 @@
   <si>
     <t>Ingrese la cédula de su empresa o persona física en todas las líneas.</t>
   </si>
+  <si>
+    <t>Indique el monto de exoneración para su línea de factura.</t>
+  </si>
+  <si>
+    <t>MontoExoneracion</t>
+  </si>
+  <si>
+    <t>TarifaIdentificacionEspecifica</t>
+  </si>
+  <si>
+    <t>Si su compra tiene identificación específica, indique a qué tarifa del impuesto será la venta.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -4153,11 +4383,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4221,12 +4446,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="32">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4305,7 +4538,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/m/yy"/>
+      <numFmt numFmtId="19" formatCode="d/m/yy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4320,6 +4553,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4344,51 +4581,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:AB4" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
-  <autoFilter ref="A3:AB4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AA4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:AD4" headerRowDxfId="31" dataDxfId="30" totalsRowDxfId="29">
+  <autoFilter ref="A3:AD4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A4:AA4">
     <sortCondition ref="D3:D4"/>
   </sortState>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CedulaEmpresa" dataDxfId="0"/>
+  <tableColumns count="30">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CedulaEmpresa" dataDxfId="28"/>
     <tableColumn id="28" xr3:uid="{AFB7E6CF-C994-4FA1-BBB3-C789FBE8CE5B}" name="TipoDocumento"/>
-    <tableColumn id="21" xr3:uid="{9BB43033-B6D4-412D-A2A2-D3B9D9BE03CB}" name="ClaveFactura" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ConsecutivoComprobante" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Moneda" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TipoCambio" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FechaEmision" dataDxfId="20"/>
+    <tableColumn id="21" xr3:uid="{9BB43033-B6D4-412D-A2A2-D3B9D9BE03CB}" name="ClaveFactura" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ConsecutivoComprobante" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Moneda" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TipoCambio" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FechaEmision" dataDxfId="23"/>
     <tableColumn id="26" xr3:uid="{BC57BDDF-3739-4B7D-AFAD-41175DE60537}" name="CodigoProveedor"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NombreProveedor" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TipoIdentificacion" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="IdentificacionProveedor" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NombreProveedor" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TipoIdentificacion" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="IdentificacionProveedor" dataDxfId="20"/>
     <tableColumn id="14" xr3:uid="{6DC8ABAA-586C-42FC-A898-73830CDE483C}" name="CorreoProveedor"/>
     <tableColumn id="25" xr3:uid="{416EB538-A7AD-494E-B673-8B653787523A}" name="CondicionVenta"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MetodoPago" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NumeroLinea" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="DetalleProducto" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="CodigoProducto" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cantidad" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="UnidadMedicion" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="PrecioUnitario" dataDxfId="10"/>
-    <tableColumn id="27" xr3:uid="{F2DD17B1-2A7F-44F4-9597-E795BCF624ED}" name="SubtotalLinea" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MetodoPago" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NumeroLinea" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="DetalleProducto" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="CodigoProducto" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cantidad" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="UnidadMedicion" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="PrecioUnitario" dataDxfId="13"/>
+    <tableColumn id="27" xr3:uid="{F2DD17B1-2A7F-44F4-9597-E795BCF624ED}" name="SubtotalLinea" dataDxfId="12">
       <calculatedColumnFormula>R4*T4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="MontoDescuento" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="CodigoIVAEtax" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{E2EF8122-63CE-ED42-B81A-5664304EEDFD}" name="CategoriaDeclaracion" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="MontoIVA" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="TotalLinea" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="MontoDescuento" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="CodigoIVAEtax" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{E2EF8122-63CE-ED42-B81A-5664304EEDFD}" name="CategoriaDeclaracion" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="MontoIVA" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="TotalLinea" dataDxfId="7">
       <calculatedColumnFormula>U4-V4+Y4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="TotalDocumento" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C780B5E8-EB6A-BB4D-84ED-70312C2663E4}" name="ActividadComercial" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="TotalDocumento" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C780B5E8-EB6A-BB4D-84ED-70312C2663E4}" name="ActividadComercial" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="29" xr3:uid="{B3BF1E44-78EC-3242-845B-00FD4CF4A4FF}" name="MontoExoneracion" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="30" xr3:uid="{44D47063-5CD3-664A-8BF5-AFF774ABA5C4}" name="TarifaIdentificacionEspecifica" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4684,34 +4923,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" customWidth="1"/>
+    <col min="1" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" customWidth="1"/>
-    <col min="7" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
-    <col min="11" max="12" width="20.77734375" customWidth="1"/>
-    <col min="13" max="20" width="15.77734375" customWidth="1"/>
-    <col min="21" max="21" width="25.77734375" style="1" customWidth="1"/>
-    <col min="22" max="23" width="15.77734375" customWidth="1"/>
-    <col min="24" max="24" width="25.77734375" customWidth="1"/>
-    <col min="25" max="25" width="15.77734375" customWidth="1"/>
-    <col min="26" max="26" width="25.77734375" customWidth="1"/>
-    <col min="27" max="27" width="15.77734375" customWidth="1"/>
-    <col min="28" max="28" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="12" width="20.83203125" customWidth="1"/>
+    <col min="13" max="20" width="15.83203125" customWidth="1"/>
+    <col min="21" max="21" width="25.83203125" style="1" customWidth="1"/>
+    <col min="22" max="23" width="15.83203125" customWidth="1"/>
+    <col min="24" max="24" width="25.83203125" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" customWidth="1"/>
+    <col min="26" max="26" width="25.83203125" customWidth="1"/>
+    <col min="27" max="27" width="15.83203125" customWidth="1"/>
+    <col min="28" max="28" width="25.83203125" customWidth="1"/>
+    <col min="29" max="29" width="15.83203125" customWidth="1"/>
+    <col min="30" max="30" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>56</v>
       </c>
@@ -4743,7 +4984,7 @@
       <c r="AA1" s="18"/>
       <c r="AB1" s="18"/>
     </row>
-    <row r="2" spans="1:28" s="4" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>68</v>
       </c>
@@ -4828,8 +5069,14 @@
       <c r="AB2" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="AC2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
@@ -4914,8 +5161,14 @@
       <c r="AB3" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="AC3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>67</v>
       </c>
@@ -5000,6 +5253,10 @@
         <v>1130</v>
       </c>
       <c r="AB4" s="17"/>
+      <c r="AC4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
